--- a/market_summary_report.xlsx
+++ b/market_summary_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,1232 +458,1360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025.01.29 23:36</t>
+          <t>2025.01.30 00:07</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38905963333.61502</v>
+        <v>44352888023.48599</v>
       </c>
       <c r="C2" t="n">
-        <v>30079393696.10799</v>
+        <v>31028947867.18901</v>
       </c>
       <c r="D2" t="n">
-        <v>12.79484519258777</v>
+        <v>17.67526619492322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025.01.29 23:33</t>
+          <t>2025.01.30 00:03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40299000556.357</v>
+        <v>41715905013.787</v>
       </c>
       <c r="C3" t="n">
-        <v>31177928753.145</v>
+        <v>30333648719.32299</v>
       </c>
       <c r="D3" t="n">
-        <v>12.76086128954545</v>
+        <v>15.79781650921365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025.01.29 23:28</t>
+          <t>2025.01.30 00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41102013589.11898</v>
+        <v>40342946120.26198</v>
       </c>
       <c r="C4" t="n">
-        <v>29763286609.89</v>
+        <v>30282421400.335</v>
       </c>
       <c r="D4" t="n">
-        <v>16.00039363043233</v>
+        <v>14.2449166257336</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025.01.29 23:23</t>
+          <t>2025.01.29 23:56</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39477866309.21898</v>
+        <v>40565869602.59101</v>
       </c>
       <c r="C5" t="n">
-        <v>32540374965.284</v>
+        <v>29780670100.61901</v>
       </c>
       <c r="D5" t="n">
-        <v>9.632964122925754</v>
+        <v>15.33152809999531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025.01.29 23:19</t>
+          <t>2025.01.29 23:52</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43226187565.16699</v>
+        <v>40350237775.98898</v>
       </c>
       <c r="C6" t="n">
-        <v>33162709962.58</v>
+        <v>30520668484.792</v>
       </c>
       <c r="D6" t="n">
-        <v>13.17400555353166</v>
+        <v>13.86968194681679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025.01.29 23:15</t>
+          <t>2025.01.29 23:49</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41570409946.25999</v>
+        <v>40510491493.546</v>
       </c>
       <c r="C7" t="n">
-        <v>32962726055.08101</v>
+        <v>30213092995.856</v>
       </c>
       <c r="D7" t="n">
-        <v>11.54880144990023</v>
+        <v>14.56006305680543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025.01.29 23:11</t>
+          <t>2025.01.29 23:45</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40813817042.07099</v>
+        <v>40455987106.418</v>
       </c>
       <c r="C8" t="n">
-        <v>32154070543.46999</v>
+        <v>30549639749.07401</v>
       </c>
       <c r="D8" t="n">
-        <v>11.86788707354189</v>
+        <v>13.95149623494631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025.01.29 23:08</t>
+          <t>2025.01.29 23:41</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40259487166.11001</v>
+        <v>38822309350.49898</v>
       </c>
       <c r="C9" t="n">
-        <v>31560687732.357</v>
+        <v>30912213889.92599</v>
       </c>
       <c r="D9" t="n">
-        <v>12.11191624923024</v>
+        <v>11.34315557489538</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025.01.29 23:02</t>
+          <t>2025.01.29 23:36</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39158011719.873</v>
+        <v>38905963333.61502</v>
       </c>
       <c r="C10" t="n">
-        <v>30516183997.729</v>
+        <v>30079393696.10799</v>
       </c>
       <c r="D10" t="n">
-        <v>12.40319695568555</v>
+        <v>12.79484519258777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025.01.29 22:58</t>
+          <t>2025.01.29 23:33</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41426924261.69299</v>
+        <v>40299000556.357</v>
       </c>
       <c r="C11" t="n">
-        <v>27487044391.423</v>
+        <v>31177928753.145</v>
       </c>
       <c r="D11" t="n">
-        <v>20.22794528122083</v>
+        <v>12.76086128954545</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025.01.29 22:53</t>
+          <t>2025.01.29 23:28</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39178524824.07999</v>
+        <v>41102013589.11898</v>
       </c>
       <c r="C12" t="n">
-        <v>26334150610.39799</v>
+        <v>29763286609.89</v>
       </c>
       <c r="D12" t="n">
-        <v>19.60593752048517</v>
+        <v>16.00039363043233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025.01.29 22:50</t>
+          <t>2025.01.29 23:23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37139621179.341</v>
+        <v>39477866309.21898</v>
       </c>
       <c r="C13" t="n">
-        <v>25857305982.025</v>
+        <v>32540374965.284</v>
       </c>
       <c r="D13" t="n">
-        <v>17.90931035162472</v>
+        <v>9.632964122925754</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025.01.29 22:46</t>
+          <t>2025.01.29 23:19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35858414130.11699</v>
+        <v>43226187565.16699</v>
       </c>
       <c r="C14" t="n">
-        <v>24951429910.835</v>
+        <v>33162709962.58</v>
       </c>
       <c r="D14" t="n">
-        <v>17.93621475486231</v>
+        <v>13.17400555353166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025.01.29 22:41</t>
+          <t>2025.01.29 23:15</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35489538272.38101</v>
+        <v>41570409946.25999</v>
       </c>
       <c r="C15" t="n">
-        <v>23009341036.14299</v>
+        <v>32962726055.08101</v>
       </c>
       <c r="D15" t="n">
-        <v>21.33407918879482</v>
+        <v>11.54880144990023</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025.01.29 22:38</t>
+          <t>2025.01.29 23:11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93553991955.60001</v>
+        <v>40813817042.07099</v>
       </c>
       <c r="C16" t="n">
-        <v>28047327568.637</v>
+        <v>32154070543.46999</v>
       </c>
       <c r="D16" t="n">
-        <v>53.87002759777334</v>
+        <v>11.86788707354189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025.01.29 22:34</t>
+          <t>2025.01.29 23:08</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94540520026.908</v>
+        <v>40259487166.11001</v>
       </c>
       <c r="C17" t="n">
-        <v>29032988465.34902</v>
+        <v>31560687732.357</v>
       </c>
       <c r="D17" t="n">
-        <v>53.0109829856159</v>
+        <v>12.11191624923024</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025.01.29 22:30</t>
+          <t>2025.01.29 23:02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92794162327.47099</v>
+        <v>39158011719.873</v>
       </c>
       <c r="C18" t="n">
-        <v>27953669110.02499</v>
+        <v>30516183997.729</v>
       </c>
       <c r="D18" t="n">
-        <v>53.69909541688961</v>
+        <v>12.40319695568555</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025.01.29 22:24</t>
+          <t>2025.01.29 22:58</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94326815609.00403</v>
+        <v>41426924261.69299</v>
       </c>
       <c r="C19" t="n">
-        <v>29176128256.76299</v>
+        <v>27487044391.423</v>
       </c>
       <c r="D19" t="n">
-        <v>52.75233554193824</v>
+        <v>20.22794528122083</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025.01.29 22:20</t>
+          <t>2025.01.29 22:53</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>96475468244.72403</v>
+        <v>39178524824.07999</v>
       </c>
       <c r="C20" t="n">
-        <v>30080417656.995</v>
+        <v>26334150610.39799</v>
       </c>
       <c r="D20" t="n">
-        <v>52.46302857797559</v>
+        <v>19.60593752048517</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025.01.29 22:15</t>
+          <t>2025.01.29 22:50</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95129628884.10901</v>
+        <v>37139621179.341</v>
       </c>
       <c r="C21" t="n">
-        <v>29017240002.354</v>
+        <v>25857305982.025</v>
       </c>
       <c r="D21" t="n">
-        <v>53.25336794616808</v>
+        <v>17.90931035162472</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025.01.29 22:09</t>
+          <t>2025.01.29 22:46</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94246237245.71992</v>
+        <v>35858414130.11699</v>
       </c>
       <c r="C22" t="n">
-        <v>30260051901.388</v>
+        <v>24951429910.835</v>
       </c>
       <c r="D22" t="n">
-        <v>51.39193030540837</v>
+        <v>17.93621475486231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025.01.29 22:04</t>
+          <t>2025.01.29 22:41</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91595494163.97807</v>
+        <v>35489538272.38101</v>
       </c>
       <c r="C23" t="n">
-        <v>28051730904.187</v>
+        <v>23009341036.14299</v>
       </c>
       <c r="D23" t="n">
-        <v>53.1092661978488</v>
+        <v>21.33407918879482</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025.01.29 21:59</t>
+          <t>2025.01.29 22:38</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>58642926666.71301</v>
+        <v>93553991955.60001</v>
       </c>
       <c r="C24" t="n">
-        <v>27063905024.878</v>
+        <v>28047327568.637</v>
       </c>
       <c r="D24" t="n">
-        <v>36.8453961236947</v>
+        <v>53.87002759777334</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025.01.29 21:55</t>
+          <t>2025.01.29 22:34</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94198202636.22995</v>
+        <v>94540520026.908</v>
       </c>
       <c r="C25" t="n">
-        <v>28580694787.54799</v>
+        <v>29032988465.34902</v>
       </c>
       <c r="D25" t="n">
-        <v>53.44363667169906</v>
+        <v>53.0109829856159</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025.01.29 21:52</t>
+          <t>2025.01.29 22:30</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>95650658959.23393</v>
+        <v>92794162327.47099</v>
       </c>
       <c r="C26" t="n">
-        <v>30102810012.312</v>
+        <v>27953669110.02499</v>
       </c>
       <c r="D26" t="n">
-        <v>52.12408809315101</v>
+        <v>53.69909541688961</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025.01.29 21:48</t>
+          <t>2025.01.29 22:24</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98459266124.75098</v>
+        <v>94326815609.00403</v>
       </c>
       <c r="C27" t="n">
-        <v>31536574406.247</v>
+        <v>29176128256.76299</v>
       </c>
       <c r="D27" t="n">
-        <v>51.48064079984622</v>
+        <v>52.75233554193824</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025.01.29 21:44</t>
+          <t>2025.01.29 22:20</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95929645438.63699</v>
+        <v>96475468244.72403</v>
       </c>
       <c r="C28" t="n">
-        <v>30466252886.72001</v>
+        <v>30080417656.995</v>
       </c>
       <c r="D28" t="n">
-        <v>51.79233932370732</v>
+        <v>52.46302857797559</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025.01.29 21:40</t>
+          <t>2025.01.29 22:15</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99429780543.96297</v>
+        <v>95129628884.10901</v>
       </c>
       <c r="C29" t="n">
-        <v>31295492812.139</v>
+        <v>29017240002.354</v>
       </c>
       <c r="D29" t="n">
-        <v>52.12021056266822</v>
+        <v>53.25336794616808</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025.01.29 21:35</t>
+          <t>2025.01.29 22:09</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81698860651.91704</v>
+        <v>94246237245.71992</v>
       </c>
       <c r="C30" t="n">
-        <v>30108928035.92599</v>
+        <v>30260051901.388</v>
       </c>
       <c r="D30" t="n">
-        <v>46.14162682353493</v>
+        <v>51.39193030540837</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025.01.29 21:27</t>
+          <t>2025.01.29 22:04</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97321531024.57095</v>
+        <v>91595494163.97807</v>
       </c>
       <c r="C31" t="n">
-        <v>30661652467.66701</v>
+        <v>28051730904.187</v>
       </c>
       <c r="D31" t="n">
-        <v>52.08487297938389</v>
+        <v>53.1092661978488</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025.01.29 21:23</t>
+          <t>2025.01.29 21:59</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96002746238.19511</v>
+        <v>58642926666.71301</v>
       </c>
       <c r="C32" t="n">
-        <v>29925180487.515</v>
+        <v>27063905024.878</v>
       </c>
       <c r="D32" t="n">
-        <v>52.47252731684129</v>
+        <v>36.8453961236947</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025.01.29 21:19</t>
+          <t>2025.01.29 21:55</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>96118926833.73695</v>
+        <v>94198202636.22995</v>
       </c>
       <c r="C33" t="n">
-        <v>29672911668.62001</v>
+        <v>28580694787.54799</v>
       </c>
       <c r="D33" t="n">
-        <v>52.82219892498983</v>
+        <v>53.44363667169906</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025.01.29 21:15</t>
+          <t>2025.01.29 21:52</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96250533768.627</v>
+        <v>95650658959.23393</v>
       </c>
       <c r="C34" t="n">
-        <v>28988543679.43301</v>
+        <v>30102810012.312</v>
       </c>
       <c r="D34" t="n">
-        <v>53.70687125756681</v>
+        <v>52.12408809315101</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025.01.29 21:08</t>
+          <t>2025.01.29 21:48</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>91714353853.95198</v>
+        <v>98459266124.75098</v>
       </c>
       <c r="C35" t="n">
-        <v>31452207482.613</v>
+        <v>31536574406.247</v>
       </c>
       <c r="D35" t="n">
-        <v>48.9273595993856</v>
+        <v>51.48064079984622</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025.01.29 21:05</t>
+          <t>2025.01.29 21:44</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>83983062084.409</v>
+        <v>95929645438.63699</v>
       </c>
       <c r="C36" t="n">
-        <v>31215521159.00499</v>
+        <v>30466252886.72001</v>
       </c>
       <c r="D36" t="n">
-        <v>45.80572038278151</v>
+        <v>51.79233932370732</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025.01.29 20:55</t>
+          <t>2025.01.29 21:40</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84384813714.57002</v>
+        <v>99429780543.96297</v>
       </c>
       <c r="C37" t="n">
-        <v>30406774508.55199</v>
+        <v>31295492812.139</v>
       </c>
       <c r="D37" t="n">
-        <v>47.02264341974271</v>
+        <v>52.12021056266822</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025.01.29 20:51</t>
+          <t>2025.01.29 21:35</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>84062345339.50401</v>
+        <v>81698860651.91704</v>
       </c>
       <c r="C38" t="n">
-        <v>29768693175.56701</v>
+        <v>30108928035.92599</v>
       </c>
       <c r="D38" t="n">
-        <v>47.69670282569603</v>
+        <v>46.14162682353493</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025.01.29 20:40</t>
+          <t>2025.01.29 21:27</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>82004707071.44398</v>
+        <v>97321531024.57095</v>
       </c>
       <c r="C39" t="n">
-        <v>29961113681.78299</v>
+        <v>30661652467.66701</v>
       </c>
       <c r="D39" t="n">
-        <v>46.48167899770524</v>
+        <v>52.08487297938389</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025.01.29 20:32</t>
+          <t>2025.01.29 21:23</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82697619456.09395</v>
+        <v>96002746238.19511</v>
       </c>
       <c r="C40" t="n">
-        <v>28514371588.40601</v>
+        <v>29925180487.515</v>
       </c>
       <c r="D40" t="n">
-        <v>48.72068862251307</v>
+        <v>52.47252731684129</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025.01.29 20:24</t>
+          <t>2025.01.29 21:19</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>86867111465.819</v>
+        <v>96118926833.73695</v>
       </c>
       <c r="C41" t="n">
-        <v>31729391449.334</v>
+        <v>29672911668.62001</v>
       </c>
       <c r="D41" t="n">
-        <v>46.49185992940445</v>
+        <v>52.82219892498983</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025.01.29 20:20</t>
+          <t>2025.01.29 21:15</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>85494387323.90498</v>
+        <v>96250533768.627</v>
       </c>
       <c r="C42" t="n">
-        <v>29741014053.49301</v>
+        <v>28988543679.43301</v>
       </c>
       <c r="D42" t="n">
-        <v>48.38215739607543</v>
+        <v>53.70687125756681</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025.01.29 20:09</t>
+          <t>2025.01.29 21:08</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88227994314.69496</v>
+        <v>91714353853.95198</v>
       </c>
       <c r="C43" t="n">
-        <v>30606654687.22999</v>
+        <v>31452207482.613</v>
       </c>
       <c r="D43" t="n">
-        <v>48.48866901313571</v>
+        <v>48.9273595993856</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025.01.29 19:27</t>
+          <t>2025.01.29 21:05</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>90813088072.159</v>
+        <v>83983062084.409</v>
       </c>
       <c r="C44" t="n">
-        <v>31776737927.279</v>
+        <v>31215521159.00499</v>
       </c>
       <c r="D44" t="n">
-        <v>48.15762618437084</v>
+        <v>45.80572038278151</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025.01.29 19:17</t>
+          <t>2025.01.29 20:55</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93838039170.39998</v>
+        <v>84384813714.57002</v>
       </c>
       <c r="C45" t="n">
-        <v>32800126605.93</v>
+        <v>30406774508.55199</v>
       </c>
       <c r="D45" t="n">
-        <v>48.1986707484977</v>
+        <v>47.02264341974271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025.01.29 19:09</t>
+          <t>2025.01.29 20:51</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95503783662.84601</v>
+        <v>84062345339.50401</v>
       </c>
       <c r="C46" t="n">
-        <v>31724109410.686</v>
+        <v>29768693175.56701</v>
       </c>
       <c r="D46" t="n">
-        <v>50.13026052022902</v>
+        <v>47.69670282569603</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025.01.29 18:51</t>
+          <t>2025.01.29 20:40</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>91210813386.791</v>
+        <v>82004707071.44398</v>
       </c>
       <c r="C47" t="n">
-        <v>27933919756.88199</v>
+        <v>29961113681.78299</v>
       </c>
       <c r="D47" t="n">
-        <v>53.10926631864233</v>
+        <v>46.48167899770524</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025.01.29 18:43</t>
+          <t>2025.01.29 20:32</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>92556770621.526</v>
+        <v>82697619456.09395</v>
       </c>
       <c r="C48" t="n">
-        <v>28322670419.333</v>
+        <v>28514371588.40601</v>
       </c>
       <c r="D48" t="n">
-        <v>53.1389785137085</v>
+        <v>48.72068862251307</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025.01.29 18:34</t>
+          <t>2025.01.29 20:24</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>93191890035.66801</v>
+        <v>86867111465.819</v>
       </c>
       <c r="C49" t="n">
-        <v>28037315642.66501</v>
+        <v>31729391449.334</v>
       </c>
       <c r="D49" t="n">
-        <v>53.74494869320744</v>
+        <v>46.49185992940445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025.01.29 18:26</t>
+          <t>2025.01.29 20:20</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>91834968477.646</v>
+        <v>85494387323.90498</v>
       </c>
       <c r="C50" t="n">
-        <v>28157136185.955</v>
+        <v>29741014053.49301</v>
       </c>
       <c r="D50" t="n">
-        <v>53.06835184715894</v>
+        <v>48.38215739607543</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025.01.29 18:18</t>
+          <t>2025.01.29 20:09</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>88950875668.422</v>
+        <v>88227994314.69496</v>
       </c>
       <c r="C51" t="n">
-        <v>28360711725.985</v>
+        <v>30606654687.22999</v>
       </c>
       <c r="D51" t="n">
-        <v>51.648916605936</v>
+        <v>48.48866901313571</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025.01.29 18:10</t>
+          <t>2025.01.29 19:27</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>90748247545.32602</v>
+        <v>90813088072.159</v>
       </c>
       <c r="C52" t="n">
-        <v>29309249165.52</v>
+        <v>31776737927.279</v>
       </c>
       <c r="D52" t="n">
-        <v>51.17464553486364</v>
+        <v>48.15762618437084</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025.01.29 18:01</t>
+          <t>2025.01.29 19:17</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>88762276931.58205</v>
+        <v>93838039170.39998</v>
       </c>
       <c r="C53" t="n">
-        <v>30472007832.29899</v>
+        <v>32800126605.93</v>
       </c>
       <c r="D53" t="n">
-        <v>48.88717134900833</v>
+        <v>48.1986707484977</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025.01.29 17:54</t>
+          <t>2025.01.29 19:09</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>87770463646.44598</v>
+        <v>95503783662.84601</v>
       </c>
       <c r="C54" t="n">
-        <v>30505387139.61599</v>
+        <v>31724109410.686</v>
       </c>
       <c r="D54" t="n">
-        <v>48.41654160696876</v>
+        <v>50.13026052022902</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025.01.29 17:46</t>
+          <t>2025.01.29 18:51</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>87455834104.88403</v>
+        <v>91210813386.791</v>
       </c>
       <c r="C55" t="n">
-        <v>30572164840.548</v>
+        <v>27933919756.88199</v>
       </c>
       <c r="D55" t="n">
-        <v>48.19506369046814</v>
+        <v>53.10926631864233</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025.01.29 17:38</t>
+          <t>2025.01.29 18:43</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>94707128389.66899</v>
+        <v>92556770621.526</v>
       </c>
       <c r="C56" t="n">
-        <v>29774689099.26399</v>
+        <v>28322670419.333</v>
       </c>
       <c r="D56" t="n">
-        <v>52.16218769956327</v>
+        <v>53.1389785137085</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025.01.29 17:28</t>
+          <t>2025.01.29 18:34</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>88218805733.01602</v>
+        <v>93191890035.66801</v>
       </c>
       <c r="C57" t="n">
-        <v>31130593685.388</v>
+        <v>28037315642.66501</v>
       </c>
       <c r="D57" t="n">
-        <v>47.8328440074453</v>
+        <v>53.74494869320744</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025.01.29 17:19</t>
+          <t>2025.01.29 18:26</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>91480206963.72101</v>
+        <v>91834968477.646</v>
       </c>
       <c r="C58" t="n">
-        <v>31112550360.672</v>
+        <v>28157136185.955</v>
       </c>
       <c r="D58" t="n">
-        <v>49.24243317515896</v>
+        <v>53.06835184715894</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025.01.29 17:09</t>
+          <t>2025.01.29 18:18</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>95927381732.57597</v>
+        <v>88950875668.422</v>
       </c>
       <c r="C59" t="n">
-        <v>39760100385.02899</v>
+        <v>28360711725.985</v>
       </c>
       <c r="D59" t="n">
-        <v>41.39459327490865</v>
+        <v>51.648916605936</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025.01.29 17:01</t>
+          <t>2025.01.29 18:10</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>90295918105.94801</v>
+        <v>90748247545.32602</v>
       </c>
       <c r="C60" t="n">
-        <v>31372537568.985</v>
+        <v>29309249165.52</v>
       </c>
       <c r="D60" t="n">
-        <v>48.42946366837367</v>
+        <v>51.17464553486364</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025.01.29 16:54</t>
+          <t>2025.01.29 18:01</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>93558407329.28499</v>
+        <v>88762276931.58205</v>
       </c>
       <c r="C61" t="n">
-        <v>33383619858.66</v>
+        <v>30472007832.29899</v>
       </c>
       <c r="D61" t="n">
-        <v>47.40336104884534</v>
+        <v>48.88717134900833</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025.01.29 15:59</t>
+          <t>2025.01.29 17:54</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>94907687098.60204</v>
+        <v>87770463646.44598</v>
       </c>
       <c r="C62" t="n">
-        <v>42624835523.70399</v>
+        <v>30505387139.61599</v>
       </c>
       <c r="D62" t="n">
-        <v>38.01490045992833</v>
+        <v>48.41654160696876</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025.01.29 15:51</t>
+          <t>2025.01.29 17:46</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>95986897554.75201</v>
+        <v>87455834104.88403</v>
       </c>
       <c r="C63" t="n">
-        <v>41938211614.99698</v>
+        <v>30572164840.548</v>
       </c>
       <c r="D63" t="n">
-        <v>39.18698072099079</v>
+        <v>48.19506369046814</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025.01.29 15:43</t>
+          <t>2025.01.29 17:38</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>94896300409.85201</v>
+        <v>94707128389.66899</v>
       </c>
       <c r="C64" t="n">
-        <v>40127628235.97301</v>
+        <v>29774689099.26399</v>
       </c>
       <c r="D64" t="n">
-        <v>40.56219717731674</v>
+        <v>52.16218769956327</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025.01.29 15:35</t>
+          <t>2025.01.29 17:28</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>87812970253.22896</v>
+        <v>88218805733.01602</v>
       </c>
       <c r="C65" t="n">
-        <v>29888218664.108</v>
+        <v>31130593685.388</v>
       </c>
       <c r="D65" t="n">
-        <v>49.21339548218349</v>
+        <v>47.8328440074453</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025.01.29 15:26</t>
+          <t>2025.01.29 17:19</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>90914041172.63802</v>
+        <v>91480206963.72101</v>
       </c>
       <c r="C66" t="n">
-        <v>31750641264.55199</v>
+        <v>31112550360.672</v>
       </c>
       <c r="D66" t="n">
-        <v>48.23181272113955</v>
+        <v>49.24243317515896</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025.01.29 15:18</t>
+          <t>2025.01.29 17:09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>88284821187.88904</v>
+        <v>95927381732.57597</v>
       </c>
       <c r="C67" t="n">
-        <v>30009298319.30499</v>
+        <v>39760100385.02899</v>
       </c>
       <c r="D67" t="n">
-        <v>49.26324580744695</v>
+        <v>41.39459327490865</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025.01.29 15:07</t>
+          <t>2025.01.29 17:01</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>89967334758.575</v>
+        <v>90295918105.94801</v>
       </c>
       <c r="C68" t="n">
-        <v>30812404808.86999</v>
+        <v>31372537568.985</v>
       </c>
       <c r="D68" t="n">
-        <v>48.97752732499652</v>
+        <v>48.42946366837367</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025.01.29 13:07</t>
+          <t>2025.01.29 16:54</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>69181636139.05597</v>
+        <v>93558407329.28499</v>
       </c>
       <c r="C69" t="n">
-        <v>30595946351.96301</v>
+        <v>33383619858.66</v>
       </c>
       <c r="D69" t="n">
-        <v>38.67170242430566</v>
+        <v>47.40336104884534</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025.01.29 12:58</t>
+          <t>2025.01.29 15:59</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>73237785036.01198</v>
+        <v>94907687098.60204</v>
       </c>
       <c r="C70" t="n">
-        <v>36596882148.633</v>
+        <v>42624835523.70399</v>
       </c>
       <c r="D70" t="n">
-        <v>33.3600527288723</v>
+        <v>38.01490045992833</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025.01.29 12:46</t>
+          <t>2025.01.29 15:51</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>74256750147.90999</v>
+        <v>95986897554.75201</v>
       </c>
       <c r="C71" t="n">
-        <v>33765852033.40501</v>
+        <v>41938211614.99698</v>
       </c>
       <c r="D71" t="n">
-        <v>37.48372775406887</v>
+        <v>39.18698072099079</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025.01.29 12:37</t>
+          <t>2025.01.29 15:43</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>71931350483.89798</v>
+        <v>94896300409.85201</v>
       </c>
       <c r="C72" t="n">
-        <v>30284916527.88199</v>
+        <v>40127628235.97301</v>
       </c>
       <c r="D72" t="n">
-        <v>40.74345030739229</v>
+        <v>40.56219717731674</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025.01.29 12:29</t>
+          <t>2025.01.29 15:35</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>50346321528.21799</v>
+        <v>87812970253.22896</v>
       </c>
       <c r="C73" t="n">
-        <v>28525373899.93399</v>
+        <v>29888218664.108</v>
       </c>
       <c r="D73" t="n">
-        <v>27.66638590666756</v>
+        <v>49.21339548218349</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025.01.29 12:20</t>
+          <t>2025.01.29 15:26</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>52668726764.882</v>
+        <v>90914041172.63802</v>
       </c>
       <c r="C74" t="n">
-        <v>28499206648.668</v>
+        <v>31750641264.55199</v>
       </c>
       <c r="D74" t="n">
-        <v>29.77717812904079</v>
+        <v>48.23181272113955</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025.01.29 12:07</t>
+          <t>2025.01.29 15:18</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>49877544158.583</v>
+        <v>88284821187.88904</v>
       </c>
       <c r="C75" t="n">
-        <v>28262123322.608</v>
+        <v>30009298319.30499</v>
       </c>
       <c r="D75" t="n">
-        <v>27.66254519982191</v>
+        <v>49.26324580744695</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025.01.29 11:57</t>
+          <t>2025.01.29 15:07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>64872300660.80196</v>
+        <v>89967334758.575</v>
       </c>
       <c r="C76" t="n">
-        <v>29301029544.559</v>
+        <v>30812404808.86999</v>
       </c>
       <c r="D76" t="n">
-        <v>37.77212830710538</v>
+        <v>48.97752732499652</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025.01.29 11:35</t>
+          <t>2025.01.29 13:07</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>65120576526.59899</v>
+        <v>69181636139.05597</v>
       </c>
       <c r="C77" t="n">
-        <v>30504876043.94499</v>
+        <v>30595946351.96301</v>
       </c>
       <c r="D77" t="n">
-        <v>36.1992540188164</v>
+        <v>38.67170242430566</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>2025.01.29 12:58</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>73237785036.01198</v>
+      </c>
+      <c r="C78" t="n">
+        <v>36596882148.633</v>
+      </c>
+      <c r="D78" t="n">
+        <v>33.3600527288723</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:46</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>74256750147.90999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>33765852033.40501</v>
+      </c>
+      <c r="D79" t="n">
+        <v>37.48372775406887</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:37</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>71931350483.89798</v>
+      </c>
+      <c r="C80" t="n">
+        <v>30284916527.88199</v>
+      </c>
+      <c r="D80" t="n">
+        <v>40.74345030739229</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:29</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>50346321528.21799</v>
+      </c>
+      <c r="C81" t="n">
+        <v>28525373899.93399</v>
+      </c>
+      <c r="D81" t="n">
+        <v>27.66638590666756</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>52668726764.882</v>
+      </c>
+      <c r="C82" t="n">
+        <v>28499206648.668</v>
+      </c>
+      <c r="D82" t="n">
+        <v>29.77717812904079</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:07</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>49877544158.583</v>
+      </c>
+      <c r="C83" t="n">
+        <v>28262123322.608</v>
+      </c>
+      <c r="D83" t="n">
+        <v>27.66254519982191</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025.01.29 11:57</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>64872300660.80196</v>
+      </c>
+      <c r="C84" t="n">
+        <v>29301029544.559</v>
+      </c>
+      <c r="D84" t="n">
+        <v>37.77212830710538</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025.01.29 11:35</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>65120576526.59899</v>
+      </c>
+      <c r="C85" t="n">
+        <v>30504876043.94499</v>
+      </c>
+      <c r="D85" t="n">
+        <v>36.1992540188164</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>2025.01.29 11:30</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B86" t="n">
         <v>65838421547.02701</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C86" t="n">
         <v>29626940118.626</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D86" t="n">
         <v>37.93153956219636</v>
       </c>
     </row>

--- a/market_summary_report.xlsx
+++ b/market_summary_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,1360 +458,1936 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025.01.30 00:07</t>
+          <t>2025.01.30 14:32</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44352888023.48599</v>
+        <v>45812892537.287</v>
       </c>
       <c r="C2" t="n">
-        <v>31028947867.18901</v>
+        <v>29239550181.597</v>
       </c>
       <c r="D2" t="n">
-        <v>17.67526619492322</v>
+        <v>22.08234902862125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025.01.30 00:03</t>
+          <t>2025.01.30 14:28</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41715905013.787</v>
+        <v>46310017129.231</v>
       </c>
       <c r="C3" t="n">
-        <v>30333648719.32299</v>
+        <v>29623897257.19</v>
       </c>
       <c r="D3" t="n">
-        <v>15.79781650921365</v>
+        <v>21.97452878186525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025.01.30 00:00</t>
+          <t>2025.01.30 14:24</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40342946120.26198</v>
+        <v>47541555539.01601</v>
       </c>
       <c r="C4" t="n">
-        <v>30282421400.335</v>
+        <v>30988176248.48801</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2449166257336</v>
+        <v>21.07912368186905</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025.01.29 23:56</t>
+          <t>2025.01.30 14:20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40565869602.59101</v>
+        <v>46519691978.30499</v>
       </c>
       <c r="C5" t="n">
-        <v>29780670100.61901</v>
+        <v>29105697258.402</v>
       </c>
       <c r="D5" t="n">
-        <v>15.33152809999531</v>
+        <v>23.02665136095669</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025.01.29 23:52</t>
+          <t>2025.01.30 14:15</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40350237775.98898</v>
+        <v>46021616729.10199</v>
       </c>
       <c r="C6" t="n">
-        <v>30520668484.792</v>
+        <v>29963098065.77999</v>
       </c>
       <c r="D6" t="n">
-        <v>13.86968194681679</v>
+        <v>21.1338802898338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025.01.29 23:49</t>
+          <t>2025.01.30 14:11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40510491493.546</v>
+        <v>47882814076.97099</v>
       </c>
       <c r="C7" t="n">
-        <v>30213092995.856</v>
+        <v>30331757101.641</v>
       </c>
       <c r="D7" t="n">
-        <v>14.56006305680543</v>
+        <v>22.43962564884506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025.01.29 23:45</t>
+          <t>2025.01.30 14:07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40455987106.418</v>
+        <v>44580250064.44801</v>
       </c>
       <c r="C8" t="n">
-        <v>30549639749.07401</v>
+        <v>29694051716.642</v>
       </c>
       <c r="D8" t="n">
-        <v>13.95149623494631</v>
+        <v>20.04219223989526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025.01.29 23:41</t>
+          <t>2025.01.30 14:02</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38822309350.49898</v>
+        <v>44465333759.74099</v>
       </c>
       <c r="C9" t="n">
-        <v>30912213889.92599</v>
+        <v>29002927117.239</v>
       </c>
       <c r="D9" t="n">
-        <v>11.34315557489538</v>
+        <v>21.04637629628016</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025.01.29 23:36</t>
+          <t>2025.01.30 13:57</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38905963333.61502</v>
+        <v>45174576918.715</v>
       </c>
       <c r="C10" t="n">
-        <v>30079393696.10799</v>
+        <v>30434583632.482</v>
       </c>
       <c r="D10" t="n">
-        <v>12.79484519258777</v>
+        <v>19.49498338399373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025.01.29 23:33</t>
+          <t>2025.01.30 13:51</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40299000556.357</v>
+        <v>45018704074.58501</v>
       </c>
       <c r="C11" t="n">
-        <v>31177928753.145</v>
+        <v>29035790633.43798</v>
       </c>
       <c r="D11" t="n">
-        <v>12.76086128954545</v>
+        <v>21.58263789951354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025.01.29 23:28</t>
+          <t>2025.01.30 13:47</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41102013589.11898</v>
+        <v>45851673828.12099</v>
       </c>
       <c r="C12" t="n">
-        <v>29763286609.89</v>
+        <v>29170838505.158</v>
       </c>
       <c r="D12" t="n">
-        <v>16.00039363043233</v>
+        <v>22.23443977570397</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025.01.29 23:23</t>
+          <t>2025.01.30 13:43</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39477866309.21898</v>
+        <v>47012292459.205</v>
       </c>
       <c r="C13" t="n">
-        <v>32540374965.284</v>
+        <v>29669239199.82099</v>
       </c>
       <c r="D13" t="n">
-        <v>9.632964122925754</v>
+        <v>22.6169885814254</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025.01.29 23:19</t>
+          <t>2025.01.30 13:39</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43226187565.16699</v>
+        <v>45959592146.64301</v>
       </c>
       <c r="C14" t="n">
-        <v>33162709962.58</v>
+        <v>29975785753.718</v>
       </c>
       <c r="D14" t="n">
-        <v>13.17400555353166</v>
+        <v>21.04922216084608</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025.01.29 23:15</t>
+          <t>2025.01.30 13:35</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41570409946.25999</v>
+        <v>45549212265.252</v>
       </c>
       <c r="C15" t="n">
-        <v>32962726055.08101</v>
+        <v>29551580191.18998</v>
       </c>
       <c r="D15" t="n">
-        <v>11.54880144990023</v>
+        <v>21.30154895947409</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025.01.29 23:11</t>
+          <t>2025.01.30 13:32</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40813817042.07099</v>
+        <v>46458664602.95499</v>
       </c>
       <c r="C16" t="n">
-        <v>32154070543.46999</v>
+        <v>30293213914.78301</v>
       </c>
       <c r="D16" t="n">
-        <v>11.86788707354189</v>
+        <v>21.06196095830542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025.01.29 23:08</t>
+          <t>2025.01.30 13:28</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>40259487166.11001</v>
+        <v>46376301923.78399</v>
       </c>
       <c r="C17" t="n">
-        <v>31560687732.357</v>
+        <v>30311721984.63599</v>
       </c>
       <c r="D17" t="n">
-        <v>12.11191624923024</v>
+        <v>20.94796438924042</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025.01.29 23:02</t>
+          <t>2025.01.30 13:24</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39158011719.873</v>
+        <v>47794065978.368</v>
       </c>
       <c r="C18" t="n">
-        <v>30516183997.729</v>
+        <v>29971267589.43601</v>
       </c>
       <c r="D18" t="n">
-        <v>12.40319695568555</v>
+        <v>22.91869342191169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025.01.29 22:58</t>
+          <t>2025.01.30 13:21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41426924261.69299</v>
+        <v>49258223734.50501</v>
       </c>
       <c r="C19" t="n">
-        <v>27487044391.423</v>
+        <v>32170005031.835</v>
       </c>
       <c r="D19" t="n">
-        <v>20.22794528122083</v>
+        <v>20.98562005039433</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025.01.29 22:53</t>
+          <t>2025.01.30 13:17</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>39178524824.07999</v>
+        <v>48601060833.94701</v>
       </c>
       <c r="C20" t="n">
-        <v>26334150610.39799</v>
+        <v>31423776130.648</v>
       </c>
       <c r="D20" t="n">
-        <v>19.60593752048517</v>
+        <v>21.46494182912072</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025.01.29 22:50</t>
+          <t>2025.01.30 13:13</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37139621179.341</v>
+        <v>48465946880.873</v>
       </c>
       <c r="C21" t="n">
-        <v>25857305982.025</v>
+        <v>31105846477.54499</v>
       </c>
       <c r="D21" t="n">
-        <v>17.90931035162472</v>
+        <v>21.81690228487412</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025.01.29 22:46</t>
+          <t>2025.01.30 12:21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35858414130.11699</v>
+        <v>45983933839.66</v>
       </c>
       <c r="C22" t="n">
-        <v>24951429910.835</v>
+        <v>26289098886.86499</v>
       </c>
       <c r="D22" t="n">
-        <v>17.93621475486231</v>
+        <v>27.25059985695991</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025.01.29 22:41</t>
+          <t>2025.01.30 12:17</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35489538272.38101</v>
+        <v>46314479287.589</v>
       </c>
       <c r="C23" t="n">
-        <v>23009341036.14299</v>
+        <v>27027155593.151</v>
       </c>
       <c r="D23" t="n">
-        <v>21.33407918879482</v>
+        <v>26.29791894576785</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025.01.29 22:38</t>
+          <t>2025.01.30 12:13</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>93553991955.60001</v>
+        <v>46749400954.86601</v>
       </c>
       <c r="C24" t="n">
-        <v>28047327568.637</v>
+        <v>27547748628.312</v>
       </c>
       <c r="D24" t="n">
-        <v>53.87002759777334</v>
+        <v>25.84439973037883</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025.01.29 22:34</t>
+          <t>2025.01.30 12:09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94540520026.908</v>
+        <v>45898483157.333</v>
       </c>
       <c r="C25" t="n">
-        <v>29032988465.34902</v>
+        <v>28245272626.18901</v>
       </c>
       <c r="D25" t="n">
-        <v>53.0109829856159</v>
+        <v>23.80943660675375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025.01.29 22:30</t>
+          <t>2025.01.30 12:05</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>92794162327.47099</v>
+        <v>46563939310.01601</v>
       </c>
       <c r="C26" t="n">
-        <v>27953669110.02499</v>
+        <v>27510093462.52999</v>
       </c>
       <c r="D26" t="n">
-        <v>53.69909541688961</v>
+        <v>25.72270623633163</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025.01.29 22:24</t>
+          <t>2025.01.30 12:01</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>94326815609.00403</v>
+        <v>47257633607.95398</v>
       </c>
       <c r="C27" t="n">
-        <v>29176128256.76299</v>
+        <v>28557660249.50599</v>
       </c>
       <c r="D27" t="n">
-        <v>52.75233554193824</v>
+        <v>24.66517295785431</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025.01.29 22:20</t>
+          <t>2025.01.30 11:08</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96475468244.72403</v>
+        <v>46151399730.56099</v>
       </c>
       <c r="C28" t="n">
-        <v>30080417656.995</v>
+        <v>27891842598.824</v>
       </c>
       <c r="D28" t="n">
-        <v>52.46302857797559</v>
+        <v>24.66066660142793</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025.01.29 22:15</t>
+          <t>2025.01.30 11:04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>95129628884.10901</v>
+        <v>46447559361.867</v>
       </c>
       <c r="C29" t="n">
-        <v>29017240002.354</v>
+        <v>27629543583.90401</v>
       </c>
       <c r="D29" t="n">
-        <v>53.25336794616808</v>
+        <v>25.40328256592178</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025.01.29 22:09</t>
+          <t>2025.01.30 10:59</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>94246237245.71992</v>
+        <v>46686107435.02901</v>
       </c>
       <c r="C30" t="n">
-        <v>30260051901.388</v>
+        <v>28274102844.22601</v>
       </c>
       <c r="D30" t="n">
-        <v>51.39193030540837</v>
+        <v>24.56237051925462</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025.01.29 22:04</t>
+          <t>2025.01.30 10:54</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91595494163.97807</v>
+        <v>47934814513.84198</v>
       </c>
       <c r="C31" t="n">
-        <v>28051730904.187</v>
+        <v>28486208612.418</v>
       </c>
       <c r="D31" t="n">
-        <v>53.1092661978488</v>
+        <v>25.44928752038784</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025.01.29 21:59</t>
+          <t>2025.01.30 10:50</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>58642926666.71301</v>
+        <v>46862922100.47501</v>
       </c>
       <c r="C32" t="n">
-        <v>27063905024.878</v>
+        <v>28744148162.43601</v>
       </c>
       <c r="D32" t="n">
-        <v>36.8453961236947</v>
+        <v>23.9643909954902</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025.01.29 21:55</t>
+          <t>2025.01.30 10:46</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>94198202636.22995</v>
+        <v>49034402828.217</v>
       </c>
       <c r="C33" t="n">
-        <v>28580694787.54799</v>
+        <v>28625549810.23601</v>
       </c>
       <c r="D33" t="n">
-        <v>53.44363667169906</v>
+        <v>26.27976495555526</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025.01.29 21:52</t>
+          <t>2025.01.30 10:41</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95650658959.23393</v>
+        <v>48009048627.264</v>
       </c>
       <c r="C34" t="n">
-        <v>30102810012.312</v>
+        <v>27927893292.50101</v>
       </c>
       <c r="D34" t="n">
-        <v>52.12408809315101</v>
+        <v>26.44451412855254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025.01.29 21:48</t>
+          <t>2025.01.30 00:57</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98459266124.75098</v>
+        <v>41562770529.76798</v>
       </c>
       <c r="C35" t="n">
-        <v>31536574406.247</v>
+        <v>30336209296.94899</v>
       </c>
       <c r="D35" t="n">
-        <v>51.48064079984622</v>
+        <v>15.61435400039891</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025.01.29 21:44</t>
+          <t>2025.01.30 00:52</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>95929645438.63699</v>
+        <v>42941980811.68298</v>
       </c>
       <c r="C36" t="n">
-        <v>30466252886.72001</v>
+        <v>30381913919.456</v>
       </c>
       <c r="D36" t="n">
-        <v>51.79233932370732</v>
+        <v>17.12956866009603</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025.01.29 21:40</t>
+          <t>2025.01.30 00:49</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99429780543.96297</v>
+        <v>43529010010.55299</v>
       </c>
       <c r="C37" t="n">
-        <v>31295492812.139</v>
+        <v>31827975331.55801</v>
       </c>
       <c r="D37" t="n">
-        <v>52.12021056266822</v>
+        <v>15.5274718406977</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025.01.29 21:35</t>
+          <t>2025.01.30 00:07</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81698860651.91704</v>
+        <v>44352888023.48599</v>
       </c>
       <c r="C38" t="n">
-        <v>30108928035.92599</v>
+        <v>31028947867.18901</v>
       </c>
       <c r="D38" t="n">
-        <v>46.14162682353493</v>
+        <v>17.67526619492322</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025.01.29 21:27</t>
+          <t>2025.01.30 00:03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>97321531024.57095</v>
+        <v>41715905013.787</v>
       </c>
       <c r="C39" t="n">
-        <v>30661652467.66701</v>
+        <v>30333648719.32299</v>
       </c>
       <c r="D39" t="n">
-        <v>52.08487297938389</v>
+        <v>15.79781650921365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025.01.29 21:23</t>
+          <t>2025.01.30 00:00</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96002746238.19511</v>
+        <v>40342946120.26198</v>
       </c>
       <c r="C40" t="n">
-        <v>29925180487.515</v>
+        <v>30282421400.335</v>
       </c>
       <c r="D40" t="n">
-        <v>52.47252731684129</v>
+        <v>14.2449166257336</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025.01.29 21:19</t>
+          <t>2025.01.29 23:56</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96118926833.73695</v>
+        <v>40565869602.59101</v>
       </c>
       <c r="C41" t="n">
-        <v>29672911668.62001</v>
+        <v>29780670100.61901</v>
       </c>
       <c r="D41" t="n">
-        <v>52.82219892498983</v>
+        <v>15.33152809999531</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025.01.29 21:15</t>
+          <t>2025.01.29 23:52</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>96250533768.627</v>
+        <v>40350237775.98898</v>
       </c>
       <c r="C42" t="n">
-        <v>28988543679.43301</v>
+        <v>30520668484.792</v>
       </c>
       <c r="D42" t="n">
-        <v>53.70687125756681</v>
+        <v>13.86968194681679</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025.01.29 21:08</t>
+          <t>2025.01.29 23:49</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91714353853.95198</v>
+        <v>40510491493.546</v>
       </c>
       <c r="C43" t="n">
-        <v>31452207482.613</v>
+        <v>30213092995.856</v>
       </c>
       <c r="D43" t="n">
-        <v>48.9273595993856</v>
+        <v>14.56006305680543</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025.01.29 21:05</t>
+          <t>2025.01.29 23:45</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83983062084.409</v>
+        <v>40455987106.418</v>
       </c>
       <c r="C44" t="n">
-        <v>31215521159.00499</v>
+        <v>30549639749.07401</v>
       </c>
       <c r="D44" t="n">
-        <v>45.80572038278151</v>
+        <v>13.95149623494631</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025.01.29 20:55</t>
+          <t>2025.01.29 23:41</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>84384813714.57002</v>
+        <v>38822309350.49898</v>
       </c>
       <c r="C45" t="n">
-        <v>30406774508.55199</v>
+        <v>30912213889.92599</v>
       </c>
       <c r="D45" t="n">
-        <v>47.02264341974271</v>
+        <v>11.34315557489538</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025.01.29 20:51</t>
+          <t>2025.01.29 23:36</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84062345339.50401</v>
+        <v>38905963333.61502</v>
       </c>
       <c r="C46" t="n">
-        <v>29768693175.56701</v>
+        <v>30079393696.10799</v>
       </c>
       <c r="D46" t="n">
-        <v>47.69670282569603</v>
+        <v>12.79484519258777</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025.01.29 20:40</t>
+          <t>2025.01.29 23:33</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>82004707071.44398</v>
+        <v>40299000556.357</v>
       </c>
       <c r="C47" t="n">
-        <v>29961113681.78299</v>
+        <v>31177928753.145</v>
       </c>
       <c r="D47" t="n">
-        <v>46.48167899770524</v>
+        <v>12.76086128954545</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025.01.29 20:32</t>
+          <t>2025.01.29 23:28</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>82697619456.09395</v>
+        <v>41102013589.11898</v>
       </c>
       <c r="C48" t="n">
-        <v>28514371588.40601</v>
+        <v>29763286609.89</v>
       </c>
       <c r="D48" t="n">
-        <v>48.72068862251307</v>
+        <v>16.00039363043233</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025.01.29 20:24</t>
+          <t>2025.01.29 23:23</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>86867111465.819</v>
+        <v>39477866309.21898</v>
       </c>
       <c r="C49" t="n">
-        <v>31729391449.334</v>
+        <v>32540374965.284</v>
       </c>
       <c r="D49" t="n">
-        <v>46.49185992940445</v>
+        <v>9.632964122925754</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025.01.29 20:20</t>
+          <t>2025.01.29 23:19</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>85494387323.90498</v>
+        <v>43226187565.16699</v>
       </c>
       <c r="C50" t="n">
-        <v>29741014053.49301</v>
+        <v>33162709962.58</v>
       </c>
       <c r="D50" t="n">
-        <v>48.38215739607543</v>
+        <v>13.17400555353166</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025.01.29 20:09</t>
+          <t>2025.01.29 23:15</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>88227994314.69496</v>
+        <v>41570409946.25999</v>
       </c>
       <c r="C51" t="n">
-        <v>30606654687.22999</v>
+        <v>32962726055.08101</v>
       </c>
       <c r="D51" t="n">
-        <v>48.48866901313571</v>
+        <v>11.54880144990023</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025.01.29 19:27</t>
+          <t>2025.01.29 23:11</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>90813088072.159</v>
+        <v>40813817042.07099</v>
       </c>
       <c r="C52" t="n">
-        <v>31776737927.279</v>
+        <v>32154070543.46999</v>
       </c>
       <c r="D52" t="n">
-        <v>48.15762618437084</v>
+        <v>11.86788707354189</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025.01.29 19:17</t>
+          <t>2025.01.29 23:08</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>93838039170.39998</v>
+        <v>40259487166.11001</v>
       </c>
       <c r="C53" t="n">
-        <v>32800126605.93</v>
+        <v>31560687732.357</v>
       </c>
       <c r="D53" t="n">
-        <v>48.1986707484977</v>
+        <v>12.11191624923024</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025.01.29 19:09</t>
+          <t>2025.01.29 23:02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>95503783662.84601</v>
+        <v>39158011719.873</v>
       </c>
       <c r="C54" t="n">
-        <v>31724109410.686</v>
+        <v>30516183997.729</v>
       </c>
       <c r="D54" t="n">
-        <v>50.13026052022902</v>
+        <v>12.40319695568555</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025.01.29 18:51</t>
+          <t>2025.01.29 22:58</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>91210813386.791</v>
+        <v>41426924261.69299</v>
       </c>
       <c r="C55" t="n">
-        <v>27933919756.88199</v>
+        <v>27487044391.423</v>
       </c>
       <c r="D55" t="n">
-        <v>53.10926631864233</v>
+        <v>20.22794528122083</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025.01.29 18:43</t>
+          <t>2025.01.29 22:53</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>92556770621.526</v>
+        <v>39178524824.07999</v>
       </c>
       <c r="C56" t="n">
-        <v>28322670419.333</v>
+        <v>26334150610.39799</v>
       </c>
       <c r="D56" t="n">
-        <v>53.1389785137085</v>
+        <v>19.60593752048517</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025.01.29 18:34</t>
+          <t>2025.01.29 22:50</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>93191890035.66801</v>
+        <v>37139621179.341</v>
       </c>
       <c r="C57" t="n">
-        <v>28037315642.66501</v>
+        <v>25857305982.025</v>
       </c>
       <c r="D57" t="n">
-        <v>53.74494869320744</v>
+        <v>17.90931035162472</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025.01.29 18:26</t>
+          <t>2025.01.29 22:46</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>91834968477.646</v>
+        <v>35858414130.11699</v>
       </c>
       <c r="C58" t="n">
-        <v>28157136185.955</v>
+        <v>24951429910.835</v>
       </c>
       <c r="D58" t="n">
-        <v>53.06835184715894</v>
+        <v>17.93621475486231</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025.01.29 18:18</t>
+          <t>2025.01.29 22:41</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>88950875668.422</v>
+        <v>35489538272.38101</v>
       </c>
       <c r="C59" t="n">
-        <v>28360711725.985</v>
+        <v>23009341036.14299</v>
       </c>
       <c r="D59" t="n">
-        <v>51.648916605936</v>
+        <v>21.33407918879482</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025.01.29 18:10</t>
+          <t>2025.01.29 22:38</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>90748247545.32602</v>
+        <v>93553991955.60001</v>
       </c>
       <c r="C60" t="n">
-        <v>29309249165.52</v>
+        <v>28047327568.637</v>
       </c>
       <c r="D60" t="n">
-        <v>51.17464553486364</v>
+        <v>53.87002759777334</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025.01.29 18:01</t>
+          <t>2025.01.29 22:34</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>88762276931.58205</v>
+        <v>94540520026.908</v>
       </c>
       <c r="C61" t="n">
-        <v>30472007832.29899</v>
+        <v>29032988465.34902</v>
       </c>
       <c r="D61" t="n">
-        <v>48.88717134900833</v>
+        <v>53.0109829856159</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025.01.29 17:54</t>
+          <t>2025.01.29 22:30</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>87770463646.44598</v>
+        <v>92794162327.47099</v>
       </c>
       <c r="C62" t="n">
-        <v>30505387139.61599</v>
+        <v>27953669110.02499</v>
       </c>
       <c r="D62" t="n">
-        <v>48.41654160696876</v>
+        <v>53.69909541688961</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025.01.29 17:46</t>
+          <t>2025.01.29 22:24</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>87455834104.88403</v>
+        <v>94326815609.00403</v>
       </c>
       <c r="C63" t="n">
-        <v>30572164840.548</v>
+        <v>29176128256.76299</v>
       </c>
       <c r="D63" t="n">
-        <v>48.19506369046814</v>
+        <v>52.75233554193824</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025.01.29 17:38</t>
+          <t>2025.01.29 22:20</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>94707128389.66899</v>
+        <v>96475468244.72403</v>
       </c>
       <c r="C64" t="n">
-        <v>29774689099.26399</v>
+        <v>30080417656.995</v>
       </c>
       <c r="D64" t="n">
-        <v>52.16218769956327</v>
+        <v>52.46302857797559</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025.01.29 17:28</t>
+          <t>2025.01.29 22:15</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>88218805733.01602</v>
+        <v>95129628884.10901</v>
       </c>
       <c r="C65" t="n">
-        <v>31130593685.388</v>
+        <v>29017240002.354</v>
       </c>
       <c r="D65" t="n">
-        <v>47.8328440074453</v>
+        <v>53.25336794616808</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025.01.29 17:19</t>
+          <t>2025.01.29 22:09</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>91480206963.72101</v>
+        <v>94246237245.71992</v>
       </c>
       <c r="C66" t="n">
-        <v>31112550360.672</v>
+        <v>30260051901.388</v>
       </c>
       <c r="D66" t="n">
-        <v>49.24243317515896</v>
+        <v>51.39193030540837</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025.01.29 17:09</t>
+          <t>2025.01.29 22:04</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>95927381732.57597</v>
+        <v>91595494163.97807</v>
       </c>
       <c r="C67" t="n">
-        <v>39760100385.02899</v>
+        <v>28051730904.187</v>
       </c>
       <c r="D67" t="n">
-        <v>41.39459327490865</v>
+        <v>53.1092661978488</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025.01.29 17:01</t>
+          <t>2025.01.29 21:59</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>90295918105.94801</v>
+        <v>58642926666.71301</v>
       </c>
       <c r="C68" t="n">
-        <v>31372537568.985</v>
+        <v>27063905024.878</v>
       </c>
       <c r="D68" t="n">
-        <v>48.42946366837367</v>
+        <v>36.8453961236947</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025.01.29 16:54</t>
+          <t>2025.01.29 21:55</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>93558407329.28499</v>
+        <v>94198202636.22995</v>
       </c>
       <c r="C69" t="n">
-        <v>33383619858.66</v>
+        <v>28580694787.54799</v>
       </c>
       <c r="D69" t="n">
-        <v>47.40336104884534</v>
+        <v>53.44363667169906</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025.01.29 15:59</t>
+          <t>2025.01.29 21:52</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>94907687098.60204</v>
+        <v>95650658959.23393</v>
       </c>
       <c r="C70" t="n">
-        <v>42624835523.70399</v>
+        <v>30102810012.312</v>
       </c>
       <c r="D70" t="n">
-        <v>38.01490045992833</v>
+        <v>52.12408809315101</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025.01.29 15:51</t>
+          <t>2025.01.29 21:48</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>95986897554.75201</v>
+        <v>98459266124.75098</v>
       </c>
       <c r="C71" t="n">
-        <v>41938211614.99698</v>
+        <v>31536574406.247</v>
       </c>
       <c r="D71" t="n">
-        <v>39.18698072099079</v>
+        <v>51.48064079984622</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025.01.29 15:43</t>
+          <t>2025.01.29 21:44</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>94896300409.85201</v>
+        <v>95929645438.63699</v>
       </c>
       <c r="C72" t="n">
-        <v>40127628235.97301</v>
+        <v>30466252886.72001</v>
       </c>
       <c r="D72" t="n">
-        <v>40.56219717731674</v>
+        <v>51.79233932370732</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025.01.29 15:35</t>
+          <t>2025.01.29 21:40</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>87812970253.22896</v>
+        <v>99429780543.96297</v>
       </c>
       <c r="C73" t="n">
-        <v>29888218664.108</v>
+        <v>31295492812.139</v>
       </c>
       <c r="D73" t="n">
-        <v>49.21339548218349</v>
+        <v>52.12021056266822</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025.01.29 15:26</t>
+          <t>2025.01.29 21:35</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>90914041172.63802</v>
+        <v>81698860651.91704</v>
       </c>
       <c r="C74" t="n">
-        <v>31750641264.55199</v>
+        <v>30108928035.92599</v>
       </c>
       <c r="D74" t="n">
-        <v>48.23181272113955</v>
+        <v>46.14162682353493</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025.01.29 15:18</t>
+          <t>2025.01.29 21:27</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>88284821187.88904</v>
+        <v>97321531024.57095</v>
       </c>
       <c r="C75" t="n">
-        <v>30009298319.30499</v>
+        <v>30661652467.66701</v>
       </c>
       <c r="D75" t="n">
-        <v>49.26324580744695</v>
+        <v>52.08487297938389</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025.01.29 15:07</t>
+          <t>2025.01.29 21:23</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>89967334758.575</v>
+        <v>96002746238.19511</v>
       </c>
       <c r="C76" t="n">
-        <v>30812404808.86999</v>
+        <v>29925180487.515</v>
       </c>
       <c r="D76" t="n">
-        <v>48.97752732499652</v>
+        <v>52.47252731684129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025.01.29 13:07</t>
+          <t>2025.01.29 21:19</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>69181636139.05597</v>
+        <v>96118926833.73695</v>
       </c>
       <c r="C77" t="n">
-        <v>30595946351.96301</v>
+        <v>29672911668.62001</v>
       </c>
       <c r="D77" t="n">
-        <v>38.67170242430566</v>
+        <v>52.82219892498983</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025.01.29 12:58</t>
+          <t>2025.01.29 21:15</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>73237785036.01198</v>
+        <v>96250533768.627</v>
       </c>
       <c r="C78" t="n">
-        <v>36596882148.633</v>
+        <v>28988543679.43301</v>
       </c>
       <c r="D78" t="n">
-        <v>33.3600527288723</v>
+        <v>53.70687125756681</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025.01.29 12:46</t>
+          <t>2025.01.29 21:08</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>74256750147.90999</v>
+        <v>91714353853.95198</v>
       </c>
       <c r="C79" t="n">
-        <v>33765852033.40501</v>
+        <v>31452207482.613</v>
       </c>
       <c r="D79" t="n">
-        <v>37.48372775406887</v>
+        <v>48.9273595993856</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025.01.29 12:37</t>
+          <t>2025.01.29 21:05</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>71931350483.89798</v>
+        <v>83983062084.409</v>
       </c>
       <c r="C80" t="n">
-        <v>30284916527.88199</v>
+        <v>31215521159.00499</v>
       </c>
       <c r="D80" t="n">
-        <v>40.74345030739229</v>
+        <v>45.80572038278151</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025.01.29 12:29</t>
+          <t>2025.01.29 20:55</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>50346321528.21799</v>
+        <v>84384813714.57002</v>
       </c>
       <c r="C81" t="n">
-        <v>28525373899.93399</v>
+        <v>30406774508.55199</v>
       </c>
       <c r="D81" t="n">
-        <v>27.66638590666756</v>
+        <v>47.02264341974271</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025.01.29 12:20</t>
+          <t>2025.01.29 20:51</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>52668726764.882</v>
+        <v>84062345339.50401</v>
       </c>
       <c r="C82" t="n">
-        <v>28499206648.668</v>
+        <v>29768693175.56701</v>
       </c>
       <c r="D82" t="n">
-        <v>29.77717812904079</v>
+        <v>47.69670282569603</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025.01.29 12:07</t>
+          <t>2025.01.29 20:40</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>49877544158.583</v>
+        <v>82004707071.44398</v>
       </c>
       <c r="C83" t="n">
-        <v>28262123322.608</v>
+        <v>29961113681.78299</v>
       </c>
       <c r="D83" t="n">
-        <v>27.66254519982191</v>
+        <v>46.48167899770524</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025.01.29 11:57</t>
+          <t>2025.01.29 20:32</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>64872300660.80196</v>
+        <v>82697619456.09395</v>
       </c>
       <c r="C84" t="n">
-        <v>29301029544.559</v>
+        <v>28514371588.40601</v>
       </c>
       <c r="D84" t="n">
-        <v>37.77212830710538</v>
+        <v>48.72068862251307</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025.01.29 11:35</t>
+          <t>2025.01.29 20:24</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>65120576526.59899</v>
+        <v>86867111465.819</v>
       </c>
       <c r="C85" t="n">
-        <v>30504876043.94499</v>
+        <v>31729391449.334</v>
       </c>
       <c r="D85" t="n">
-        <v>36.1992540188164</v>
+        <v>46.49185992940445</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>2025.01.29 20:20</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>85494387323.90498</v>
+      </c>
+      <c r="C86" t="n">
+        <v>29741014053.49301</v>
+      </c>
+      <c r="D86" t="n">
+        <v>48.38215739607543</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025.01.29 20:09</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>88227994314.69496</v>
+      </c>
+      <c r="C87" t="n">
+        <v>30606654687.22999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>48.48866901313571</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:27</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>90813088072.159</v>
+      </c>
+      <c r="C88" t="n">
+        <v>31776737927.279</v>
+      </c>
+      <c r="D88" t="n">
+        <v>48.15762618437084</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:17</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>93838039170.39998</v>
+      </c>
+      <c r="C89" t="n">
+        <v>32800126605.93</v>
+      </c>
+      <c r="D89" t="n">
+        <v>48.1986707484977</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025.01.29 19:09</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>95503783662.84601</v>
+      </c>
+      <c r="C90" t="n">
+        <v>31724109410.686</v>
+      </c>
+      <c r="D90" t="n">
+        <v>50.13026052022902</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025.01.29 18:51</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>91210813386.791</v>
+      </c>
+      <c r="C91" t="n">
+        <v>27933919756.88199</v>
+      </c>
+      <c r="D91" t="n">
+        <v>53.10926631864233</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025.01.29 18:43</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>92556770621.526</v>
+      </c>
+      <c r="C92" t="n">
+        <v>28322670419.333</v>
+      </c>
+      <c r="D92" t="n">
+        <v>53.1389785137085</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025.01.29 18:34</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>93191890035.66801</v>
+      </c>
+      <c r="C93" t="n">
+        <v>28037315642.66501</v>
+      </c>
+      <c r="D93" t="n">
+        <v>53.74494869320744</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025.01.29 18:26</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>91834968477.646</v>
+      </c>
+      <c r="C94" t="n">
+        <v>28157136185.955</v>
+      </c>
+      <c r="D94" t="n">
+        <v>53.06835184715894</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025.01.29 18:18</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>88950875668.422</v>
+      </c>
+      <c r="C95" t="n">
+        <v>28360711725.985</v>
+      </c>
+      <c r="D95" t="n">
+        <v>51.648916605936</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025.01.29 18:10</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>90748247545.32602</v>
+      </c>
+      <c r="C96" t="n">
+        <v>29309249165.52</v>
+      </c>
+      <c r="D96" t="n">
+        <v>51.17464553486364</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025.01.29 18:01</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>88762276931.58205</v>
+      </c>
+      <c r="C97" t="n">
+        <v>30472007832.29899</v>
+      </c>
+      <c r="D97" t="n">
+        <v>48.88717134900833</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025.01.29 17:54</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>87770463646.44598</v>
+      </c>
+      <c r="C98" t="n">
+        <v>30505387139.61599</v>
+      </c>
+      <c r="D98" t="n">
+        <v>48.41654160696876</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025.01.29 17:46</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>87455834104.88403</v>
+      </c>
+      <c r="C99" t="n">
+        <v>30572164840.548</v>
+      </c>
+      <c r="D99" t="n">
+        <v>48.19506369046814</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025.01.29 17:38</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>94707128389.66899</v>
+      </c>
+      <c r="C100" t="n">
+        <v>29774689099.26399</v>
+      </c>
+      <c r="D100" t="n">
+        <v>52.16218769956327</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025.01.29 17:28</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>88218805733.01602</v>
+      </c>
+      <c r="C101" t="n">
+        <v>31130593685.388</v>
+      </c>
+      <c r="D101" t="n">
+        <v>47.8328440074453</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025.01.29 17:19</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>91480206963.72101</v>
+      </c>
+      <c r="C102" t="n">
+        <v>31112550360.672</v>
+      </c>
+      <c r="D102" t="n">
+        <v>49.24243317515896</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025.01.29 17:09</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>95927381732.57597</v>
+      </c>
+      <c r="C103" t="n">
+        <v>39760100385.02899</v>
+      </c>
+      <c r="D103" t="n">
+        <v>41.39459327490865</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025.01.29 17:01</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>90295918105.94801</v>
+      </c>
+      <c r="C104" t="n">
+        <v>31372537568.985</v>
+      </c>
+      <c r="D104" t="n">
+        <v>48.42946366837367</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025.01.29 16:54</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>93558407329.28499</v>
+      </c>
+      <c r="C105" t="n">
+        <v>33383619858.66</v>
+      </c>
+      <c r="D105" t="n">
+        <v>47.40336104884534</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025.01.29 15:59</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>94907687098.60204</v>
+      </c>
+      <c r="C106" t="n">
+        <v>42624835523.70399</v>
+      </c>
+      <c r="D106" t="n">
+        <v>38.01490045992833</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025.01.29 15:51</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>95986897554.75201</v>
+      </c>
+      <c r="C107" t="n">
+        <v>41938211614.99698</v>
+      </c>
+      <c r="D107" t="n">
+        <v>39.18698072099079</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025.01.29 15:43</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>94896300409.85201</v>
+      </c>
+      <c r="C108" t="n">
+        <v>40127628235.97301</v>
+      </c>
+      <c r="D108" t="n">
+        <v>40.56219717731674</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025.01.29 15:35</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>87812970253.22896</v>
+      </c>
+      <c r="C109" t="n">
+        <v>29888218664.108</v>
+      </c>
+      <c r="D109" t="n">
+        <v>49.21339548218349</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025.01.29 15:26</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>90914041172.63802</v>
+      </c>
+      <c r="C110" t="n">
+        <v>31750641264.55199</v>
+      </c>
+      <c r="D110" t="n">
+        <v>48.23181272113955</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025.01.29 15:18</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>88284821187.88904</v>
+      </c>
+      <c r="C111" t="n">
+        <v>30009298319.30499</v>
+      </c>
+      <c r="D111" t="n">
+        <v>49.26324580744695</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025.01.29 15:07</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>89967334758.575</v>
+      </c>
+      <c r="C112" t="n">
+        <v>30812404808.86999</v>
+      </c>
+      <c r="D112" t="n">
+        <v>48.97752732499652</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025.01.29 13:07</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>69181636139.05597</v>
+      </c>
+      <c r="C113" t="n">
+        <v>30595946351.96301</v>
+      </c>
+      <c r="D113" t="n">
+        <v>38.67170242430566</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:58</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>73237785036.01198</v>
+      </c>
+      <c r="C114" t="n">
+        <v>36596882148.633</v>
+      </c>
+      <c r="D114" t="n">
+        <v>33.3600527288723</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:46</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>74256750147.90999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>33765852033.40501</v>
+      </c>
+      <c r="D115" t="n">
+        <v>37.48372775406887</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:37</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>71931350483.89798</v>
+      </c>
+      <c r="C116" t="n">
+        <v>30284916527.88199</v>
+      </c>
+      <c r="D116" t="n">
+        <v>40.74345030739229</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:29</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>50346321528.21799</v>
+      </c>
+      <c r="C117" t="n">
+        <v>28525373899.93399</v>
+      </c>
+      <c r="D117" t="n">
+        <v>27.66638590666756</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:20</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>52668726764.882</v>
+      </c>
+      <c r="C118" t="n">
+        <v>28499206648.668</v>
+      </c>
+      <c r="D118" t="n">
+        <v>29.77717812904079</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025.01.29 12:07</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>49877544158.583</v>
+      </c>
+      <c r="C119" t="n">
+        <v>28262123322.608</v>
+      </c>
+      <c r="D119" t="n">
+        <v>27.66254519982191</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025.01.29 11:57</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>64872300660.80196</v>
+      </c>
+      <c r="C120" t="n">
+        <v>29301029544.559</v>
+      </c>
+      <c r="D120" t="n">
+        <v>37.77212830710538</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025.01.29 11:35</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>65120576526.59899</v>
+      </c>
+      <c r="C121" t="n">
+        <v>30504876043.94499</v>
+      </c>
+      <c r="D121" t="n">
+        <v>36.1992540188164</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>2025.01.29 11:30</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B122" t="n">
         <v>65838421547.02701</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C122" t="n">
         <v>29626940118.626</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D122" t="n">
         <v>37.93153956219636</v>
       </c>
     </row>
